--- a/NumachProgrammeBis.xlsx
+++ b/NumachProgrammeBis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14800" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
   <si>
     <t>Timeline</t>
   </si>
@@ -33,12 +33,12 @@
     <t>Break</t>
   </si>
   <si>
-    <t>10:45-11:15</t>
-  </si>
-  <si>
     <t>Lunch break</t>
   </si>
   <si>
+    <t>15:30-16:00</t>
+  </si>
+  <si>
     <t>11:40-12:20</t>
   </si>
   <si>
@@ -51,78 +51,6 @@
     <t>11:00-11:40</t>
   </si>
   <si>
-    <t>Conf1</t>
-  </si>
-  <si>
-    <t>Conf2</t>
-  </si>
-  <si>
-    <t>Conf3</t>
-  </si>
-  <si>
-    <t>Conf4</t>
-  </si>
-  <si>
-    <t>Conf5</t>
-  </si>
-  <si>
-    <t>9:00-9:40</t>
-  </si>
-  <si>
-    <t>Conf6</t>
-  </si>
-  <si>
-    <t>9:40-10:20</t>
-  </si>
-  <si>
-    <t>Conf7</t>
-  </si>
-  <si>
-    <t>10:20-10:45</t>
-  </si>
-  <si>
-    <t>Com1</t>
-  </si>
-  <si>
-    <t>11:15-11:55</t>
-  </si>
-  <si>
-    <t>Conf8</t>
-  </si>
-  <si>
-    <t>11:55-12:30</t>
-  </si>
-  <si>
-    <t>Com2</t>
-  </si>
-  <si>
-    <t>Conf9</t>
-  </si>
-  <si>
-    <t>Conf10</t>
-  </si>
-  <si>
-    <t>16:30-17:10</t>
-  </si>
-  <si>
-    <t>Conf11</t>
-  </si>
-  <si>
-    <t>Com3</t>
-  </si>
-  <si>
-    <t>Conf12</t>
-  </si>
-  <si>
-    <t>Conf13</t>
-  </si>
-  <si>
-    <t>Com4</t>
-  </si>
-  <si>
-    <t>Conf15</t>
-  </si>
-  <si>
     <t>Gala Dinner</t>
   </si>
   <si>
@@ -138,40 +66,103 @@
     <t>14:50-15:30</t>
   </si>
   <si>
-    <t>15:30-15:55</t>
-  </si>
-  <si>
-    <t>15:55-16:30</t>
-  </si>
-  <si>
     <t>Panel Discussion</t>
   </si>
   <si>
     <t>12:30-14:10</t>
   </si>
   <si>
-    <t>Com5</t>
-  </si>
-  <si>
-    <t>17:10-17:50</t>
-  </si>
-  <si>
-    <t>Conf14</t>
-  </si>
-  <si>
-    <t>11:55-12:35</t>
-  </si>
-  <si>
-    <t>Conf16</t>
-  </si>
-  <si>
     <t>Welcome and opening</t>
   </si>
   <si>
-    <t>17:50-18:30</t>
-  </si>
-  <si>
-    <t>Conf17</t>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>9:15-9:55</t>
+  </si>
+  <si>
+    <t>9:55-10:35</t>
+  </si>
+  <si>
+    <t>10:35-11:10</t>
+  </si>
+  <si>
+    <t>11:10-11:50</t>
+  </si>
+  <si>
+    <t>11:50-12:20</t>
+  </si>
+  <si>
+    <t>14:15-14:55</t>
+  </si>
+  <si>
+    <t>14:55-15:35</t>
+  </si>
+  <si>
+    <t>15:35-16:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Li-Lian Wang (NTU, Singapore) </t>
+  </si>
+  <si>
+    <t>Jean Clairambault (INRIA)</t>
+  </si>
+  <si>
+    <t>Antoine Rousseau (INRIA)</t>
+  </si>
+  <si>
+    <t>Elena Palomo CIC energiGUNE, France)</t>
+  </si>
+  <si>
+    <t>Faker Ben Belgacem (UTC, France)</t>
+  </si>
+  <si>
+    <t>Frédéric Nataf (LJLL, France)</t>
+  </si>
+  <si>
+    <t>Jie Shen (Purdue university, USA)</t>
+  </si>
+  <si>
+    <t>Helmut Harbrecht (Universität Basel, Switzerland)</t>
+  </si>
+  <si>
+    <t>Etienne Ahusborde (University of Pau, France)</t>
+  </si>
+  <si>
+    <t>Yongyong Cai (CSRC-Beijing, China)</t>
+  </si>
+  <si>
+    <t>Adel Blouza (University of Rouen, France)</t>
+  </si>
+  <si>
+    <t>Sidi-Mahmoud Kaber(LJLL, France)</t>
+  </si>
+  <si>
+    <t>Chuanju Xu (Xiamen, China)</t>
+  </si>
+  <si>
+    <t>16:00-16:40</t>
+  </si>
+  <si>
+    <t>Christophe Prud'homme (IRMA, France</t>
+  </si>
+  <si>
+    <t>16:40-17:10</t>
+  </si>
+  <si>
+    <t>17:10-17:40</t>
+  </si>
+  <si>
+    <t>16:10-16:50</t>
+  </si>
+  <si>
+    <t>17:00-17:40</t>
   </si>
 </sst>
 </file>
@@ -206,8 +197,9 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Arial"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Courier"/>
     </font>
   </fonts>
   <fills count="5">
@@ -245,7 +237,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -275,8 +267,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -337,6 +355,21 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -344,19 +377,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="55">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -371,6 +401,19 @@
     <cellStyle name="Lien hypertexte" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -385,6 +428,19 @@
     <cellStyle name="Lien hypertexte visité" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -717,7 +773,7 @@
   <dimension ref="A1:K109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:G12"/>
+      <selection activeCell="A9" sqref="A9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -757,206 +813,199 @@
       </c>
       <c r="H2" s="14"/>
     </row>
-    <row r="3" spans="1:11" ht="28" customHeight="1">
+    <row r="3" spans="1:11" ht="56" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1"/>
       <c r="E3" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:11" s="18" customFormat="1" ht="28" customHeight="1">
+      <c r="A4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="E4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:11" s="18" customFormat="1" ht="28" customHeight="1">
-      <c r="A4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="20"/>
-      <c r="E4" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="17"/>
-    </row>
-    <row r="5" spans="1:11" ht="28" customHeight="1">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="E5" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="22" t="s">
+      <c r="F4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="21"/>
+      <c r="G4" s="26"/>
+    </row>
+    <row r="5" spans="1:11" ht="56" customHeight="1">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="E5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="12"/>
       <c r="I5" s="15"/>
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
     </row>
-    <row r="6" spans="1:11" ht="28" customHeight="1">
-      <c r="A6" s="25" t="s">
+    <row r="6" spans="1:11" ht="56" customHeight="1">
+      <c r="A6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>11</v>
-      </c>
+      <c r="B6" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="22"/>
       <c r="E6" s="7" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:11" ht="28" customHeight="1">
       <c r="A7" s="19" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="18"/>
-      <c r="E7" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="12"/>
+      <c r="E7" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="26"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="28" customHeight="1">
+    <row r="8" spans="1:11" ht="56" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="E8" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="21"/>
-    </row>
-    <row r="9" spans="1:11" ht="28" customHeight="1">
+      <c r="C8" s="24"/>
+      <c r="E8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>43299</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="56" customHeight="1">
       <c r="A9" s="9" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C9" s="7"/>
-      <c r="E9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>43299</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="E9" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:11" ht="28" customHeight="1">
-      <c r="A10" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="E10" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="24"/>
+      <c r="A10" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="29"/>
     </row>
     <row r="11" spans="1:11" s="18" customFormat="1" ht="28" customHeight="1">
-      <c r="A11" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>3</v>
-      </c>
+      <c r="A11" s="11"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="13"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="24"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
     </row>
-    <row r="12" spans="1:11" ht="28" customHeight="1">
-      <c r="A12" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
+    <row r="12" spans="1:11" ht="56" customHeight="1">
+      <c r="A12" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:11" ht="28" customHeight="1">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="25" t="s">
-        <v>16</v>
+      <c r="B13" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="C13" s="18"/>
-      <c r="E13" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
     </row>
     <row r="14" spans="1:11" s="18" customFormat="1" ht="28" customHeight="1">
-      <c r="A14" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>41</v>
+      <c r="A14" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="C14"/>
-      <c r="E14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="17"/>
+      <c r="E14" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="19"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
     </row>
     <row r="15" spans="1:11" ht="28" customHeight="1">
-      <c r="E15" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="19"/>
+      <c r="E15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="25"/>
     </row>
     <row r="16" spans="1:11" ht="28" customHeight="1">
       <c r="A16" s="4" t="s">
@@ -968,124 +1017,108 @@
       <c r="C16" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" s="20"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
     </row>
     <row r="17" spans="1:11" ht="12">
       <c r="A17" s="8"/>
       <c r="B17" s="6"/>
       <c r="C17" s="8"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-    </row>
-    <row r="18" spans="1:11" s="18" customFormat="1" ht="28" customHeight="1">
+      <c r="E17" s="17"/>
+      <c r="F17" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" spans="1:11" s="18" customFormat="1" ht="56" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C18" s="7"/>
-      <c r="E18" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>50</v>
-      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="10"/>
+      <c r="G18"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
     </row>
-    <row r="19" spans="1:11" ht="28" customHeight="1">
+    <row r="19" spans="1:11" ht="56" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C19" s="7"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="1:11" ht="28" customHeight="1">
-      <c r="A20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="9"/>
+      <c r="A20" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="21"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:11" ht="28" customHeight="1">
-      <c r="A21" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>3</v>
-      </c>
+      <c r="A21" s="10"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="18"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:11" ht="28" customHeight="1">
+    <row r="22" spans="1:11" ht="56" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B22" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" ht="42" customHeight="1">
+      <c r="A23" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:11" ht="28" customHeight="1">
-      <c r="A23" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="B23" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="12"/>
+        <v>20</v>
+      </c>
+      <c r="C23" s="14"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:11" ht="28" customHeight="1">
       <c r="A24" s="10" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="18"/>
+        <v>4</v>
+      </c>
+      <c r="C24" s="23"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:11" ht="14" customHeight="1">
-      <c r="A25" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="20" t="s">
+    <row r="25" spans="1:11" ht="42" customHeight="1">
+      <c r="A25" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="20"/>
+      <c r="B25" s="25" t="s">
+        <v>39</v>
+      </c>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:11" ht="14" customHeight="1">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
+    <row r="26" spans="1:11" ht="42" customHeight="1">
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:11" ht="14" customHeight="1">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
+    <row r="27" spans="1:11" ht="42" customHeight="1">
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:11" ht="14" customHeight="1">
@@ -1279,9 +1312,7 @@
     <row r="88" spans="5:5" ht="12">
       <c r="E88" s="1"/>
     </row>
-    <row r="89" spans="5:5" ht="12">
-      <c r="E89" s="1"/>
-    </row>
+    <row r="89" spans="5:5" ht="12"/>
     <row r="90" spans="5:5" ht="12"/>
     <row r="91" spans="5:5" ht="12"/>
     <row r="92" spans="5:5" ht="12"/>
@@ -1303,22 +1334,20 @@
     <row r="108" ht="12"/>
     <row r="109" ht="12"/>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="G10:G12"/>
+  <mergeCells count="12">
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F7:G7"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G9:G11"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/NumachProgrammeBis.xlsx
+++ b/NumachProgrammeBis.xlsx
@@ -773,7 +773,7 @@
   <dimension ref="A1:K109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:C9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>

--- a/NumachProgrammeBis.xlsx
+++ b/NumachProgrammeBis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
   <si>
     <t>Timeline</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Lunch break</t>
   </si>
   <si>
-    <t>15:30-16:00</t>
-  </si>
-  <si>
     <t>11:40-12:20</t>
   </si>
   <si>
@@ -150,9 +147,6 @@
     <t>16:00-16:40</t>
   </si>
   <si>
-    <t>Christophe Prud'homme (IRMA, France</t>
-  </si>
-  <si>
     <t>16:40-17:10</t>
   </si>
   <si>
@@ -163,13 +157,37 @@
   </si>
   <si>
     <t>17:00-17:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fractional Phase-Field Models for Two-Phase Flows: Efficient Algorithms and Simulations  </t>
+  </si>
+  <si>
+    <t>Shape optimization for quadratic functionals and states with random right-hand sides</t>
+  </si>
+  <si>
+    <t>Discrete transparent boundary conditions: a new (?) way towards efficient domain decomposition techniques in ocean modelling</t>
+  </si>
+  <si>
+    <t>Christophe Prud'homme (IRMA Strasbourg, France)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A parallel finite volume method for two-phase multicomponent flow with reactive transport in porous media </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domain Decomposition Methods: Theory and Applications </t>
+  </si>
+  <si>
+    <t>A new and robust approach to construct energy stable schemes for gradient flows</t>
+  </si>
+  <si>
+    <t>An evolutionary perspective on cancer, with applications to anticancer drug resistance modelling and perspectives in therapeutic control</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -178,11 +196,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <u/>
@@ -197,9 +210,17 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Courier"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="5">
@@ -237,64 +258,66 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="55">
+  <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -334,9 +357,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -364,12 +384,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -377,16 +391,37 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="55">
+  <cellStyles count="57">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -414,6 +449,7 @@
     <cellStyle name="Lien hypertexte" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -441,6 +477,7 @@
     <cellStyle name="Lien hypertexte visité" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -770,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K109"/>
+  <dimension ref="A1:K107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -801,7 +838,7 @@
       <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14"/>
+      <c r="D2" s="13"/>
       <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
@@ -811,34 +848,36 @@
       <c r="G2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="14"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:11" ht="56" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1"/>
       <c r="E3" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:11" s="18" customFormat="1" ht="28" customHeight="1">
+        <v>36</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="17" customFormat="1" ht="28" customHeight="1">
       <c r="A4" s="25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="25"/>
       <c r="E4" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="28" t="s">
         <v>3</v>
@@ -850,59 +889,63 @@
       <c r="B5" s="26"/>
       <c r="C5" s="26"/>
       <c r="E5" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="12"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
+        <v>44</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:11" ht="56" customHeight="1">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="E6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:11" ht="28" customHeight="1">
+      <c r="A7" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="E7" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="22"/>
-      <c r="E6" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" spans="1:11" ht="28" customHeight="1">
-      <c r="A7" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="E7" s="19" t="s">
-        <v>7</v>
-      </c>
       <c r="F7" s="27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" s="26"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
     </row>
     <row r="8" spans="1:11" ht="56" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="24"/>
+        <v>33</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>51</v>
+      </c>
       <c r="E8" s="2" t="s">
         <v>0</v>
       </c>
@@ -915,329 +958,320 @@
     </row>
     <row r="9" spans="1:11" ht="56" customHeight="1">
       <c r="A9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>32</v>
+        <v>13</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>31</v>
       </c>
       <c r="C9" s="7"/>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="56" customHeight="1">
+      <c r="A10" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="29"/>
-    </row>
-    <row r="10" spans="1:11" ht="28" customHeight="1">
-      <c r="A10" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="21" t="s">
+      <c r="F10" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:11" ht="28" customHeight="1">
+      <c r="A11" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" spans="1:11" s="17" customFormat="1" ht="28" customHeight="1">
+      <c r="A12" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12"/>
+      <c r="E12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="29"/>
-    </row>
-    <row r="11" spans="1:11" s="18" customFormat="1" ht="28" customHeight="1">
-      <c r="A11" s="11"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="13"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-    </row>
-    <row r="12" spans="1:11" ht="56" customHeight="1">
-      <c r="A12" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="9" t="s">
+      <c r="G12" s="18"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+    </row>
+    <row r="13" spans="1:11" ht="28" customHeight="1">
+      <c r="E13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="22"/>
+    </row>
+    <row r="14" spans="1:11" ht="28" customHeight="1">
+      <c r="A14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="6">
+        <v>43298</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="24"/>
+    </row>
+    <row r="15" spans="1:11" ht="12">
+      <c r="A15" s="8"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="8"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+    </row>
+    <row r="16" spans="1:11" s="17" customFormat="1" ht="56" customHeight="1">
+      <c r="A16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+    </row>
+    <row r="17" spans="1:5" ht="56" customHeight="1">
+      <c r="A17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" ht="28" customHeight="1">
+      <c r="A18" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="B18" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" ht="56" customHeight="1">
+      <c r="A19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" ht="56" customHeight="1">
+      <c r="A20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" ht="42" customHeight="1">
+      <c r="A21" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" ht="56" customHeight="1">
+      <c r="A22" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:11" ht="28" customHeight="1">
-      <c r="A13" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="18"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-    </row>
-    <row r="14" spans="1:11" s="18" customFormat="1" ht="28" customHeight="1">
-      <c r="A14" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14"/>
-      <c r="E14" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="19"/>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-    </row>
-    <row r="15" spans="1:11" ht="28" customHeight="1">
-      <c r="E15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="25"/>
-    </row>
-    <row r="16" spans="1:11" ht="28" customHeight="1">
-      <c r="A16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="6">
-        <v>43298</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-    </row>
-    <row r="17" spans="1:11" ht="12">
-      <c r="A17" s="8"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="8"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="18"/>
-    </row>
-    <row r="18" spans="1:11" s="18" customFormat="1" ht="56" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="10"/>
-      <c r="G18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-    </row>
-    <row r="19" spans="1:11" ht="56" customHeight="1">
-      <c r="A19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:11" ht="28" customHeight="1">
-      <c r="A20" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="21"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:11" ht="28" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="18"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:11" ht="56" customHeight="1">
-      <c r="A22" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="14"/>
+      <c r="C22" s="23"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:11" ht="42" customHeight="1">
-      <c r="A23" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="14"/>
+    <row r="23" spans="1:5" ht="42" customHeight="1">
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:11" ht="28" customHeight="1">
-      <c r="A24" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>4</v>
-      </c>
+    <row r="24" spans="1:5" ht="42" customHeight="1">
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="23"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:11" ht="42" customHeight="1">
-      <c r="A25" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>39</v>
-      </c>
+    <row r="25" spans="1:5" ht="42" customHeight="1">
+      <c r="A25" s="9"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="9"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:11" ht="42" customHeight="1">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
+    <row r="26" spans="1:5" ht="14" customHeight="1">
+      <c r="A26" s="7"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:11" ht="42" customHeight="1">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
+    <row r="27" spans="1:5" ht="12">
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:11" ht="14" customHeight="1">
-      <c r="A28" s="9"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="9"/>
+    <row r="28" spans="1:5" ht="12">
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:11" ht="12">
-      <c r="A29" s="7"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
+    <row r="29" spans="1:5" ht="12">
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:11" ht="12">
+    <row r="30" spans="1:5" ht="12">
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:11" ht="12">
+    <row r="31" spans="1:5" ht="12">
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:11" ht="12">
+    <row r="32" spans="1:5" ht="12">
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="4:5" ht="12">
+    <row r="33" spans="1:5" ht="12">
+      <c r="D33" s="13"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="4:5" ht="12">
+    <row r="34" spans="1:5" ht="12">
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="4:5" ht="12">
-      <c r="D35" s="14"/>
+    <row r="35" spans="1:5" ht="12">
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="4:5" ht="12">
+    <row r="36" spans="1:5" ht="12">
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="4:5" ht="12">
+    <row r="37" spans="1:5" ht="12">
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="4:5" ht="12">
+    <row r="38" spans="1:5" ht="12">
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="4:5" ht="12">
+    <row r="39" spans="1:5" ht="12">
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="4:5" ht="12">
+    <row r="40" spans="1:5" ht="12">
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="4:5" ht="12">
+    <row r="41" spans="1:5" ht="12">
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="4:5" ht="12">
+    <row r="42" spans="1:5" ht="12">
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="4:5" ht="12">
+    <row r="43" spans="1:5" ht="12">
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="4:5" ht="12">
+    <row r="44" spans="1:5" ht="12">
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="4:5" ht="12">
+    <row r="45" spans="1:5" ht="12">
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="4:5" ht="12">
+    <row r="46" spans="1:5" ht="12">
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="4:5" ht="12">
+    <row r="47" spans="1:5" ht="12">
+      <c r="A47" s="1"/>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="4:5" ht="12">
+    <row r="48" spans="1:5" ht="12">
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="1:5" ht="12">
+    <row r="49" spans="5:5" ht="12">
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="1:5" ht="12">
-      <c r="A50" s="1"/>
+    <row r="50" spans="5:5" ht="12">
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="1:5" ht="12">
+    <row r="51" spans="5:5" ht="12">
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="1:5" ht="12">
+    <row r="52" spans="5:5" ht="12">
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="1:5" ht="12">
+    <row r="53" spans="5:5" ht="12">
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="1:5" ht="12">
+    <row r="54" spans="5:5" ht="12">
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="1:5" ht="12">
+    <row r="55" spans="5:5" ht="12">
       <c r="E55" s="1"/>
     </row>
-    <row r="56" spans="1:5" ht="12">
+    <row r="56" spans="5:5" ht="12">
       <c r="E56" s="1"/>
     </row>
-    <row r="57" spans="1:5" ht="12">
+    <row r="57" spans="5:5" ht="12">
       <c r="E57" s="1"/>
     </row>
-    <row r="58" spans="1:5" ht="12">
+    <row r="58" spans="5:5" ht="12">
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="1:5" ht="12">
+    <row r="59" spans="5:5" ht="12">
       <c r="E59" s="1"/>
     </row>
-    <row r="60" spans="1:5" ht="12">
+    <row r="60" spans="5:5" ht="12">
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="1:5" ht="12">
+    <row r="61" spans="5:5" ht="12">
       <c r="E61" s="1"/>
     </row>
-    <row r="62" spans="1:5" ht="12">
+    <row r="62" spans="5:5" ht="12">
       <c r="E62" s="1"/>
     </row>
-    <row r="63" spans="1:5" ht="12">
+    <row r="63" spans="5:5" ht="12">
       <c r="E63" s="1"/>
     </row>
-    <row r="64" spans="1:5" ht="12">
+    <row r="64" spans="5:5" ht="12">
       <c r="E64" s="1"/>
     </row>
     <row r="65" spans="5:5" ht="12">
@@ -1303,15 +1337,9 @@
     <row r="85" spans="5:5" ht="12">
       <c r="E85" s="1"/>
     </row>
-    <row r="86" spans="5:5" ht="12">
-      <c r="E86" s="1"/>
-    </row>
-    <row r="87" spans="5:5" ht="12">
-      <c r="E87" s="1"/>
-    </row>
-    <row r="88" spans="5:5" ht="12">
-      <c r="E88" s="1"/>
-    </row>
+    <row r="86" spans="5:5" ht="12"/>
+    <row r="87" spans="5:5" ht="12"/>
+    <row r="88" spans="5:5" ht="12"/>
     <row r="89" spans="5:5" ht="12"/>
     <row r="90" spans="5:5" ht="12"/>
     <row r="91" spans="5:5" ht="12"/>
@@ -1331,22 +1359,13 @@
     <row r="105" ht="12"/>
     <row r="106" ht="12"/>
     <row r="107" ht="12"/>
-    <row r="108" ht="12"/>
-    <row r="109" ht="12"/>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
+  <mergeCells count="5">
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F4:G4"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="G9:G11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/NumachProgrammeBis.xlsx
+++ b/NumachProgrammeBis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15220" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
   <si>
     <t>Timeline</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>An evolutionary perspective on cancer, with applications to anticancer drug resistance modelling and perspectives in therapeutic control</t>
+  </si>
+  <si>
+    <t>Perfect absorbing layer versus perfect matched layer: A new technique for wave  scattering simulations</t>
   </si>
 </sst>
 </file>
@@ -381,9 +384,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -393,32 +393,35 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="57">
@@ -809,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -864,37 +867,37 @@
       <c r="F3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="24" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="17" customFormat="1" ht="28" customHeight="1">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="25"/>
+      <c r="C4" s="32"/>
       <c r="E4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="26"/>
+      <c r="G4" s="31"/>
     </row>
     <row r="5" spans="1:11" ht="56" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
       <c r="E5" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="28" t="s">
         <v>53</v>
       </c>
       <c r="I5" s="14"/>
@@ -908,7 +911,9 @@
       <c r="B6" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="21"/>
+      <c r="C6" s="25" t="s">
+        <v>54</v>
+      </c>
       <c r="E6" s="7" t="s">
         <v>45</v>
       </c>
@@ -928,10 +933,10 @@
       <c r="E7" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="26"/>
+      <c r="G7" s="31"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
@@ -943,7 +948,7 @@
       <c r="B8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="25" t="s">
         <v>51</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -964,13 +969,13 @@
         <v>31</v>
       </c>
       <c r="C9" s="7"/>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="26" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1020,14 +1025,15 @@
       <c r="J12"/>
       <c r="K12"/>
     </row>
-    <row r="13" spans="1:11" ht="28" customHeight="1">
-      <c r="E13" s="1" t="s">
+    <row r="13" spans="1:11" ht="56" customHeight="1">
+      <c r="C13" s="22"/>
+      <c r="E13" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="22"/>
+      <c r="G13" s="29"/>
     </row>
     <row r="14" spans="1:11" ht="28" customHeight="1">
       <c r="A14" s="4" t="s">
@@ -1039,19 +1045,19 @@
       <c r="C14" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24" t="s">
+      <c r="E14" s="23"/>
+      <c r="F14" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="24"/>
+      <c r="G14" s="23"/>
     </row>
     <row r="15" spans="1:11" ht="12">
       <c r="A15" s="8"/>
       <c r="B15" s="6"/>
       <c r="C15" s="8"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:11" s="17" customFormat="1" ht="56" customHeight="1">
       <c r="A16" s="7" t="s">
@@ -1060,7 +1066,7 @@
       <c r="B16" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="24" t="s">
         <v>46</v>
       </c>
       <c r="E16" s="1"/>
@@ -1077,7 +1083,7 @@
       <c r="B17" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="27" t="s">
         <v>52</v>
       </c>
       <c r="E17" s="1"/>
@@ -1099,7 +1105,7 @@
       <c r="B19" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="27" t="s">
         <v>47</v>
       </c>
       <c r="E19" s="1"/>
@@ -1121,29 +1127,29 @@
       <c r="B21" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="24"/>
+      <c r="C21" s="23"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" ht="56" customHeight="1">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="23"/>
+      <c r="C22" s="22"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="42" customHeight="1">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="42" customHeight="1">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" ht="42" customHeight="1">

--- a/NumachProgrammeBis.xlsx
+++ b/NumachProgrammeBis.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
   <si>
     <t>Timeline</t>
   </si>
@@ -72,12 +72,6 @@
     <t>Welcome and opening</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
     <t>c</t>
   </si>
   <si>
@@ -144,15 +138,6 @@
     <t>Chuanju Xu (Xiamen, China)</t>
   </si>
   <si>
-    <t>16:00-16:40</t>
-  </si>
-  <si>
-    <t>16:40-17:10</t>
-  </si>
-  <si>
-    <t>17:10-17:40</t>
-  </si>
-  <si>
     <t>16:10-16:50</t>
   </si>
   <si>
@@ -184,13 +169,28 @@
   </si>
   <si>
     <t>Perfect absorbing layer versus perfect matched layer: A new technique for wave  scattering simulations</t>
+  </si>
+  <si>
+    <t>Phase field methods for phase change materials</t>
+  </si>
+  <si>
+    <t>Mejdi Azaiez (INP&amp;I2M-Bordeaux, France)</t>
+  </si>
+  <si>
+    <t>15:30-16:05</t>
+  </si>
+  <si>
+    <t>16:05-16:45</t>
+  </si>
+  <si>
+    <t>16:45-17:25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -224,6 +224,11 @@
     <font>
       <sz val="11"/>
       <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
     </font>
   </fonts>
   <fills count="5">
@@ -261,7 +266,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="57">
+  <cellStyleXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -319,8 +324,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -393,6 +412,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -417,14 +445,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="57">
+  <cellStyles count="71">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -453,6 +481,13 @@
     <cellStyle name="Lien hypertexte" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -481,6 +516,13 @@
     <cellStyle name="Lien hypertexte visité" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -810,10 +852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K107"/>
+  <dimension ref="A1:K108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -862,331 +904,324 @@
       </c>
       <c r="C3" s="1"/>
       <c r="E3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="17" customFormat="1" ht="56" customHeight="1">
+      <c r="A4" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="E4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="34"/>
+    </row>
+    <row r="5" spans="1:11" ht="56" customHeight="1">
+      <c r="A5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="17" customFormat="1" ht="28" customHeight="1">
-      <c r="A4" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="32"/>
-      <c r="E4" s="10" t="s">
+      <c r="C5" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="31"/>
-    </row>
-    <row r="5" spans="1:11" ht="56" customHeight="1">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="E5" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>53</v>
+      <c r="G5" s="31" t="s">
+        <v>48</v>
       </c>
       <c r="I5" s="14"/>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:11" ht="56" customHeight="1">
-      <c r="A6" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>54</v>
-      </c>
+      <c r="A6" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="26"/>
       <c r="E6" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:11" ht="28" customHeight="1">
-      <c r="A7" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="17"/>
+    <row r="7" spans="1:11" ht="56" customHeight="1">
+      <c r="A7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>46</v>
+      </c>
       <c r="E7" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="31"/>
+      <c r="G7" s="34"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
     </row>
     <row r="8" spans="1:11" ht="56" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="E8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>43299</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="56" customHeight="1">
+      <c r="A9" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="E9" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="25" customFormat="1" ht="56" customHeight="1">
+      <c r="A10" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10"/>
+      <c r="E10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:11" ht="56" customHeight="1">
+      <c r="A11" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="C11" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="18"/>
+    </row>
+    <row r="12" spans="1:11" ht="56" customHeight="1">
+      <c r="C12" s="22"/>
+      <c r="E12" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="32"/>
+    </row>
+    <row r="13" spans="1:11" s="17" customFormat="1" ht="28" customHeight="1">
+      <c r="A13" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="3">
-        <v>43299</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="56" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="E9" s="21" t="s">
+      <c r="B13" s="6">
+        <v>43298</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="23"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+    </row>
+    <row r="14" spans="1:11" ht="56" customHeight="1">
+      <c r="A14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" ht="56" customHeight="1">
+      <c r="A15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" ht="56" customHeight="1">
+      <c r="A16" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="56" customHeight="1">
-      <c r="A10" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:11" ht="28" customHeight="1">
-      <c r="A11" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-    </row>
-    <row r="12" spans="1:11" s="17" customFormat="1" ht="28" customHeight="1">
-      <c r="A12" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12"/>
-      <c r="E12" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="18" t="s">
+      <c r="B16" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-    </row>
-    <row r="13" spans="1:11" ht="56" customHeight="1">
-      <c r="C13" s="22"/>
-      <c r="E13" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="29"/>
-    </row>
-    <row r="14" spans="1:11" ht="28" customHeight="1">
-      <c r="A14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="6">
-        <v>43298</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="23"/>
-    </row>
-    <row r="15" spans="1:11" ht="12">
-      <c r="A15" s="8"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="8"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-    </row>
-    <row r="16" spans="1:11" s="17" customFormat="1" ht="56" customHeight="1">
-      <c r="A16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>46</v>
-      </c>
+      <c r="C16" s="20"/>
       <c r="E16" s="1"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-    </row>
-    <row r="17" spans="1:5" ht="56" customHeight="1">
+    </row>
+    <row r="17" spans="1:11" s="17" customFormat="1" ht="28" customHeight="1">
       <c r="A17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>52</v>
+      <c r="B17" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>42</v>
       </c>
       <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" ht="28" customHeight="1">
-      <c r="A18" s="20" t="s">
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+    </row>
+    <row r="18" spans="1:11" ht="56" customHeight="1">
+      <c r="A18" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="20"/>
+      <c r="B18" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="13"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" ht="56" customHeight="1">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:11" ht="28" customHeight="1">
+      <c r="A19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" ht="56" customHeight="1">
+      <c r="A20" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" ht="56" customHeight="1">
-      <c r="A20" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="13"/>
+      <c r="B20" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="22"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" ht="42" customHeight="1">
-      <c r="A21" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="23"/>
+    <row r="21" spans="1:11" ht="56" customHeight="1">
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" ht="56" customHeight="1">
-      <c r="A22" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>38</v>
-      </c>
+    <row r="22" spans="1:11" ht="42" customHeight="1">
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="22"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" ht="42" customHeight="1">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
+    <row r="23" spans="1:11" ht="56" customHeight="1">
+      <c r="A23" s="9"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="9"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" ht="42" customHeight="1">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
+    <row r="24" spans="1:11" ht="42" customHeight="1">
+      <c r="A24" s="7"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" ht="42" customHeight="1">
-      <c r="A25" s="9"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="9"/>
+    <row r="25" spans="1:11" ht="42" customHeight="1">
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" ht="14" customHeight="1">
-      <c r="A26" s="7"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="17"/>
+    <row r="26" spans="1:11" ht="42" customHeight="1">
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" ht="12">
+    <row r="27" spans="1:11" ht="14" customHeight="1">
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" ht="12">
+    <row r="28" spans="1:11" ht="12">
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" ht="12">
+    <row r="29" spans="1:11" ht="12">
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" ht="12">
+    <row r="30" spans="1:11" ht="12">
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" ht="12">
+    <row r="31" spans="1:11" ht="12">
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" ht="12">
+    <row r="32" spans="1:11" ht="12">
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" ht="12">
-      <c r="D33" s="13"/>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" ht="12">
+      <c r="D34" s="13"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" ht="12">
@@ -1220,13 +1255,13 @@
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" ht="12">
+      <c r="A45" s="1"/>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" ht="12">
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" ht="12">
-      <c r="A47" s="1"/>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" ht="12">
@@ -1337,12 +1372,8 @@
     <row r="83" spans="5:5" ht="12">
       <c r="E83" s="1"/>
     </row>
-    <row r="84" spans="5:5" ht="12">
-      <c r="E84" s="1"/>
-    </row>
-    <row r="85" spans="5:5" ht="12">
-      <c r="E85" s="1"/>
-    </row>
+    <row r="84" spans="5:5" ht="12"/>
+    <row r="85" spans="5:5" ht="12"/>
     <row r="86" spans="5:5" ht="12"/>
     <row r="87" spans="5:5" ht="12"/>
     <row r="88" spans="5:5" ht="12"/>
@@ -1365,12 +1396,10 @@
     <row r="105" ht="12"/>
     <row r="106" ht="12"/>
     <row r="107" ht="12"/>
+    <row r="108" ht="12"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="2">
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A4:A5"/>
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/NumachProgrammeBis.xlsx
+++ b/NumachProgrammeBis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
@@ -72,9 +72,6 @@
     <t>Welcome and opening</t>
   </si>
   <si>
-    <t>c</t>
-  </si>
-  <si>
     <t>9:15-9:55</t>
   </si>
   <si>
@@ -184,6 +181,9 @@
   </si>
   <si>
     <t>16:45-17:25</t>
+  </si>
+  <si>
+    <t>Guillaume Dollé (IRMA-LMIA, France)</t>
   </si>
 </sst>
 </file>
@@ -854,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -904,13 +904,13 @@
       </c>
       <c r="C3" s="1"/>
       <c r="E3" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="17" customFormat="1" ht="56" customHeight="1">
@@ -918,11 +918,11 @@
         <v>8</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="24"/>
       <c r="E4" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="35" t="s">
         <v>3</v>
@@ -934,19 +934,19 @@
         <v>5</v>
       </c>
       <c r="B5" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>27</v>
-      </c>
       <c r="G5" s="31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" s="14"/>
       <c r="J5" s="13"/>
@@ -961,7 +961,7 @@
       </c>
       <c r="C6" s="26"/>
       <c r="E6" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>14</v>
@@ -973,10 +973,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>6</v>
@@ -994,7 +994,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="7"/>
       <c r="E8" s="8" t="s">
@@ -1009,50 +1009,50 @@
     </row>
     <row r="9" spans="1:11" ht="56" customHeight="1">
       <c r="A9" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="26"/>
       <c r="E9" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="25" customFormat="1" ht="56" customHeight="1">
       <c r="A10" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10"/>
       <c r="E10" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:11" ht="56" customHeight="1">
       <c r="A11" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>3</v>
@@ -1062,10 +1062,10 @@
     <row r="12" spans="1:11" ht="56" customHeight="1">
       <c r="C12" s="22"/>
       <c r="E12" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12" s="32"/>
     </row>
@@ -1090,31 +1090,31 @@
     </row>
     <row r="14" spans="1:11" ht="56" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="56" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:11" ht="56" customHeight="1">
       <c r="A16" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>3</v>
@@ -1124,13 +1124,13 @@
     </row>
     <row r="17" spans="1:11" s="17" customFormat="1" ht="28" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17"/>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="18" spans="1:11" ht="56" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="C18" s="13"/>
       <c r="E18" s="1"/>
@@ -1161,10 +1161,10 @@
     </row>
     <row r="20" spans="1:11" ht="56" customHeight="1">
       <c r="A20" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="22"/>
       <c r="E20" s="1"/>

--- a/NumachProgrammeBis.xlsx
+++ b/NumachProgrammeBis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15340" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
   <si>
     <t>Timeline</t>
   </si>
@@ -184,6 +184,18 @@
   </si>
   <si>
     <t>Guillaume Dollé (IRMA-LMIA, France)</t>
+  </si>
+  <si>
+    <t>Ground states of spinor Bose-Einstein condensates</t>
+  </si>
+  <si>
+    <t>16:50-17:30</t>
+  </si>
+  <si>
+    <t>Chloé Mimeau (CNAM, Paris)</t>
+  </si>
+  <si>
+    <t>Une méthode Vortex avec dissipation sous-grille pour la simulation d’écoulements 3D</t>
   </si>
 </sst>
 </file>
@@ -266,7 +278,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="71">
+  <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -338,8 +350,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -451,8 +465,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="71">
+  <cellStyles count="73">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -488,6 +505,7 @@
     <cellStyle name="Lien hypertexte" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -523,6 +541,7 @@
     <cellStyle name="Lien hypertexte visité" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -852,10 +871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K108"/>
+  <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -952,7 +971,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="56" customHeight="1">
+    <row r="6" spans="1:11" s="25" customFormat="1" ht="56" customHeight="1">
       <c r="A6" s="18" t="s">
         <v>11</v>
       </c>
@@ -960,13 +979,18 @@
         <v>4</v>
       </c>
       <c r="C6" s="26"/>
-      <c r="E6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="12"/>
+      <c r="E6" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="56" customHeight="1">
       <c r="A7" s="9" t="s">
@@ -978,16 +1002,13 @@
       <c r="C7" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="34"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
+      <c r="E7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:11" ht="56" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -997,15 +1018,16 @@
         <v>28</v>
       </c>
       <c r="C8" s="7"/>
-      <c r="E8" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6">
-        <v>43299</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>1</v>
-      </c>
+      <c r="E8" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="34"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
     </row>
     <row r="9" spans="1:11" ht="56" customHeight="1">
       <c r="A9" s="26" t="s">
@@ -1015,33 +1037,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="26"/>
-      <c r="E9" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="25" customFormat="1" ht="56" customHeight="1">
+      <c r="E9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>43299</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="56" customHeight="1">
       <c r="A10" s="19" t="s">
         <v>52</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C10"/>
-      <c r="E10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:11" ht="56" customHeight="1">
+      <c r="E10" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="25" customFormat="1" ht="56" customHeight="1">
       <c r="A11" s="19" t="s">
         <v>53</v>
       </c>
@@ -1051,25 +1074,27 @@
       <c r="C11" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="18"/>
+      <c r="E11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="56" customHeight="1">
       <c r="C12" s="22"/>
-      <c r="E12" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="32"/>
-    </row>
-    <row r="13" spans="1:11" s="17" customFormat="1" ht="28" customHeight="1">
+      <c r="E12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13" spans="1:11" ht="56" customHeight="1">
       <c r="A13" s="8" t="s">
         <v>0</v>
       </c>
@@ -1079,16 +1104,15 @@
       <c r="C13" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="23"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-    </row>
-    <row r="14" spans="1:11" ht="56" customHeight="1">
+      <c r="E13" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="32"/>
+    </row>
+    <row r="14" spans="1:11" s="17" customFormat="1" ht="28" customHeight="1">
       <c r="A14" s="7" t="s">
         <v>17</v>
       </c>
@@ -1098,7 +1122,14 @@
       <c r="C14" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="23"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
     </row>
     <row r="15" spans="1:11" ht="56" customHeight="1">
       <c r="A15" s="7" t="s">
@@ -1122,7 +1153,7 @@
       <c r="C16" s="20"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:11" s="17" customFormat="1" ht="28" customHeight="1">
+    <row r="17" spans="1:11" ht="56" customHeight="1">
       <c r="A17" s="7" t="s">
         <v>20</v>
       </c>
@@ -1133,13 +1164,8 @@
         <v>41</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-    </row>
-    <row r="18" spans="1:11" ht="56" customHeight="1">
+    </row>
+    <row r="18" spans="1:11" s="17" customFormat="1" ht="28" customHeight="1">
       <c r="A18" s="7" t="s">
         <v>21</v>
       </c>
@@ -1148,8 +1174,13 @@
       </c>
       <c r="C18" s="13"/>
       <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:11" ht="28" customHeight="1">
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+    </row>
+    <row r="19" spans="1:11" ht="56" customHeight="1">
       <c r="A19" s="10" t="s">
         <v>15</v>
       </c>
@@ -1159,7 +1190,7 @@
       <c r="C19" s="23"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:11" ht="56" customHeight="1">
+    <row r="20" spans="1:11" ht="28" customHeight="1">
       <c r="A20" s="21" t="s">
         <v>22</v>
       </c>
@@ -1175,19 +1206,19 @@
       <c r="C21" s="22"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:11" ht="42" customHeight="1">
+    <row r="22" spans="1:11" ht="56" customHeight="1">
       <c r="A22" s="22"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:11" ht="56" customHeight="1">
+    <row r="23" spans="1:11" ht="42" customHeight="1">
       <c r="A23" s="9"/>
       <c r="B23" s="15"/>
       <c r="C23" s="9"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:11" ht="42" customHeight="1">
+    <row r="24" spans="1:11" ht="56" customHeight="1">
       <c r="A24" s="7"/>
       <c r="B24" s="16"/>
       <c r="C24" s="17"/>
@@ -1199,10 +1230,10 @@
     <row r="26" spans="1:11" ht="42" customHeight="1">
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:11" ht="14" customHeight="1">
+    <row r="27" spans="1:11" ht="42" customHeight="1">
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:11" ht="12">
+    <row r="28" spans="1:11" ht="14" customHeight="1">
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:11" ht="12">
@@ -1221,10 +1252,10 @@
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" ht="12">
-      <c r="D34" s="13"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" ht="12">
+      <c r="D35" s="13"/>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" ht="12">
@@ -1372,7 +1403,9 @@
     <row r="83" spans="5:5" ht="12">
       <c r="E83" s="1"/>
     </row>
-    <row r="84" spans="5:5" ht="12"/>
+    <row r="84" spans="5:5" ht="12">
+      <c r="E84" s="1"/>
+    </row>
     <row r="85" spans="5:5" ht="12"/>
     <row r="86" spans="5:5" ht="12"/>
     <row r="87" spans="5:5" ht="12"/>
@@ -1397,9 +1430,10 @@
     <row r="106" ht="12"/>
     <row r="107" ht="12"/>
     <row r="108" ht="12"/>
+    <row r="109" ht="12"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/NumachProgrammeBis.xlsx
+++ b/NumachProgrammeBis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
   <si>
     <t>Timeline</t>
   </si>
@@ -124,9 +124,6 @@
   </si>
   <si>
     <t>Yongyong Cai (CSRC-Beijing, China)</t>
-  </si>
-  <si>
-    <t>Adel Blouza (University of Rouen, France)</t>
   </si>
   <si>
     <t>Sidi-Mahmoud Kaber(LJLL, France)</t>
@@ -278,8 +275,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="73">
+  <cellStyleXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -453,6 +460,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -462,14 +475,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="73">
+  <cellStyles count="83">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -506,6 +513,11 @@
     <cellStyle name="Lien hypertexte" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -542,6 +554,11 @@
     <cellStyle name="Lien hypertexte visité" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -873,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C6"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -929,7 +946,7 @@
         <v>33</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="17" customFormat="1" ht="56" customHeight="1">
@@ -943,10 +960,10 @@
       <c r="E4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="34"/>
+      <c r="G4" s="36"/>
     </row>
     <row r="5" spans="1:11" ht="56" customHeight="1">
       <c r="A5" s="19" t="s">
@@ -956,16 +973,16 @@
         <v>25</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I5" s="14"/>
       <c r="J5" s="13"/>
@@ -980,13 +997,13 @@
       </c>
       <c r="C6" s="26"/>
       <c r="E6" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="G6" s="28" t="s">
         <v>57</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>58</v>
       </c>
       <c r="I6" s="14"/>
       <c r="J6" s="13"/>
@@ -1000,10 +1017,10 @@
         <v>30</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>14</v>
@@ -1014,24 +1031,26 @@
       <c r="A8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="7"/>
+      <c r="B8" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>41</v>
+      </c>
       <c r="E8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="34"/>
+      <c r="G8" s="36"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
     <row r="9" spans="1:11" ht="56" customHeight="1">
       <c r="A9" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="26" t="s">
         <v>3</v>
@@ -1049,40 +1068,38 @@
     </row>
     <row r="10" spans="1:11" ht="56" customHeight="1">
       <c r="A10" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="29" t="s">
-        <v>42</v>
+      <c r="F10" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="25" customFormat="1" ht="56" customHeight="1">
       <c r="A11" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="36" t="s">
         <v>49</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>48</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="37" t="s">
-        <v>55</v>
-      </c>
+      <c r="F11" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="34"/>
     </row>
     <row r="12" spans="1:11" ht="56" customHeight="1">
       <c r="C12" s="22"/>
@@ -1107,9 +1124,7 @@
       <c r="E13" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="32" t="s">
-        <v>36</v>
-      </c>
+      <c r="F13" s="32"/>
       <c r="G13" s="32"/>
     </row>
     <row r="14" spans="1:11" s="17" customFormat="1" ht="28" customHeight="1">
@@ -1117,10 +1132,10 @@
         <v>17</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="23" t="s">
@@ -1139,7 +1154,7 @@
         <v>31</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15" s="1"/>
     </row>
@@ -1161,7 +1176,7 @@
         <v>32</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" s="1"/>
     </row>
@@ -1169,9 +1184,7 @@
       <c r="A18" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="16" t="s">
-        <v>54</v>
-      </c>
+      <c r="B18" s="16"/>
       <c r="C18" s="13"/>
       <c r="E18" s="1"/>
       <c r="F18"/>
@@ -1194,8 +1207,8 @@
       <c r="A20" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="21" t="s">
-        <v>35</v>
+      <c r="B20" s="24" t="s">
+        <v>53</v>
       </c>
       <c r="C20" s="22"/>
       <c r="E20" s="1"/>
@@ -1207,7 +1220,9 @@
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:11" ht="56" customHeight="1">
-      <c r="A22" s="22"/>
+      <c r="A22" s="24" t="s">
+        <v>28</v>
+      </c>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
       <c r="E22" s="1"/>
